--- a/data_year/zb/住宿和餐饮业/限额以上住宿业企业资产及负债/按登记注册类型和行业分限额以上住宿业企业固定资产.xlsx
+++ b/data_year/zb/住宿和餐饮业/限额以上住宿业企业资产及负债/按登记注册类型和行业分限额以上住宿业企业固定资产.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,1575 +623,1351 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120.81152</v>
+        <v>353.7</v>
       </c>
       <c r="C2" t="n">
-        <v>105.54846</v>
+        <v>47.7</v>
       </c>
       <c r="D2" t="n">
-        <v>301.30007</v>
+        <v>131.8</v>
       </c>
       <c r="E2" t="n">
-        <v>2375.34842</v>
+        <v>3816.1</v>
       </c>
       <c r="F2" t="n">
-        <v>10.19619</v>
+        <v>26.7</v>
       </c>
       <c r="G2" t="n">
-        <v>18.43544</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>52.6</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>518.58359</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>951.7</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>1.86555</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>2330.66926</v>
+        <v>2992.6</v>
       </c>
       <c r="M2" t="n">
-        <v>15.13338</v>
+        <v>3.9</v>
       </c>
       <c r="N2" t="n">
-        <v>1042.86794</v>
+        <v>908</v>
       </c>
       <c r="O2" t="n">
-        <v>59.76671</v>
+        <v>61.5</v>
       </c>
       <c r="P2" t="n">
-        <v>26.71965</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>482.05905</v>
+        <v>333.6</v>
       </c>
       <c r="R2" t="n">
-        <v>2.65606</v>
+        <v>8.4</v>
       </c>
       <c r="S2" t="n">
-        <v>72.55446000000001</v>
+        <v>145.8</v>
       </c>
       <c r="T2" t="n">
-        <v>3264.05176</v>
+        <v>3409.9</v>
       </c>
       <c r="U2" t="n">
-        <v>578.3502999999999</v>
+        <v>1013.2</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>129.56403</v>
+        <v>57.2</v>
       </c>
       <c r="X2" t="n">
-        <v>417.0263</v>
+        <v>248.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>590.57041</v>
+        <v>490</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.29356</v>
+        <v>7.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.68652</v>
+        <v>176.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>327.31702</v>
+        <v>788.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.58384</v>
+        <v>30.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>235.62109</v>
+        <v>572.1</v>
       </c>
       <c r="AE2" t="n">
-        <v>58.31621</v>
+        <v>137.6</v>
       </c>
       <c r="AF2" t="n">
-        <v>24.79588</v>
+        <v>48.8</v>
       </c>
       <c r="AG2" t="n">
-        <v>46.87999</v>
+        <v>16.2</v>
       </c>
       <c r="AH2" t="n">
-        <v>41.58934</v>
+        <v>30.2</v>
       </c>
       <c r="AI2" t="n">
-        <v>149.61096</v>
+        <v>124.9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>133.85752</v>
+        <v>84.7</v>
       </c>
       <c r="AK2" t="n">
-        <v>3.16141</v>
+        <v>1.3</v>
       </c>
       <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>375.5</v>
+        <v>347.5</v>
       </c>
       <c r="C3" t="n">
-        <v>116.7</v>
+        <v>41.8</v>
       </c>
       <c r="D3" t="n">
-        <v>300</v>
+        <v>128.5</v>
       </c>
       <c r="E3" t="n">
-        <v>5117.9</v>
+        <v>3953.6</v>
       </c>
       <c r="F3" t="n">
-        <v>25.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>60.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4</v>
+      </c>
       <c r="I3" t="n">
-        <v>1050.5</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>1093.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.2</v>
+      </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>3737.2</v>
+        <v>3152.2</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N3" t="n">
-        <v>1380</v>
+        <v>893.1</v>
       </c>
       <c r="O3" t="n">
-        <v>82.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>14.5</v>
+        <v>7.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>622.3</v>
+        <v>328.5</v>
       </c>
       <c r="R3" t="n">
-        <v>15.7</v>
+        <v>22.8</v>
       </c>
       <c r="S3" t="n">
-        <v>189.9</v>
+        <v>134.9</v>
       </c>
       <c r="T3" t="n">
-        <v>4675.3</v>
+        <v>3545.8</v>
       </c>
       <c r="U3" t="n">
-        <v>1132.8</v>
+        <v>1171.4</v>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
-        <v>111.6</v>
+        <v>58.9</v>
       </c>
       <c r="X3" t="n">
-        <v>434.2</v>
+        <v>228.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>758.4</v>
+        <v>473</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.4</v>
+        <v>16.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.3</v>
+        <v>166.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>811.3</v>
+        <v>735.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>34.4</v>
+        <v>27.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>582.5</v>
+        <v>546.4</v>
       </c>
       <c r="AE3" t="n">
-        <v>143.4</v>
+        <v>112.3</v>
       </c>
       <c r="AF3" t="n">
-        <v>50.9</v>
+        <v>49.8</v>
       </c>
       <c r="AG3" t="n">
-        <v>27.4</v>
+        <v>13.8</v>
       </c>
       <c r="AH3" t="n">
-        <v>47.1</v>
+        <v>33.9</v>
       </c>
       <c r="AI3" t="n">
-        <v>172.1</v>
+        <v>139.9</v>
       </c>
       <c r="AJ3" t="n">
-        <v>141.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316.8</v>
+        <v>384.10393</v>
       </c>
       <c r="C4" t="n">
-        <v>60.7</v>
+        <v>38.09733</v>
       </c>
       <c r="D4" t="n">
-        <v>131.7</v>
+        <v>126.05852</v>
       </c>
       <c r="E4" t="n">
-        <v>3557.2</v>
+        <v>4036.88385</v>
       </c>
       <c r="F4" t="n">
-        <v>24.5</v>
+        <v>93.19878</v>
       </c>
       <c r="G4" t="n">
-        <v>49</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>59.22776</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.21514</v>
+      </c>
       <c r="I4" t="n">
-        <v>823.9</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>1244.65663</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.12786</v>
+      </c>
       <c r="K4" t="n">
-        <v>1.8</v>
+        <v>1.29113</v>
       </c>
       <c r="L4" t="n">
-        <v>2729.5</v>
+        <v>3252.85738</v>
       </c>
       <c r="M4" t="n">
-        <v>5.3</v>
+        <v>4.13484</v>
       </c>
       <c r="N4" t="n">
-        <v>902</v>
+        <v>831.31751</v>
       </c>
       <c r="O4" t="n">
-        <v>60.4</v>
+        <v>85.27261</v>
       </c>
       <c r="P4" t="n">
-        <v>8.4</v>
+        <v>6.78856</v>
       </c>
       <c r="Q4" t="n">
-        <v>326.3</v>
+        <v>323.07442</v>
       </c>
       <c r="R4" t="n">
-        <v>8.6</v>
+        <v>26.07252</v>
       </c>
       <c r="S4" t="n">
-        <v>125.4</v>
+        <v>131.63091</v>
       </c>
       <c r="T4" t="n">
-        <v>3191.3</v>
+        <v>3593.55216</v>
       </c>
       <c r="U4" t="n">
-        <v>884.3</v>
+        <v>1329.92924</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>68.5</v>
+        <v>60.46827</v>
       </c>
       <c r="X4" t="n">
-        <v>254.9</v>
+        <v>213.96958</v>
       </c>
       <c r="Y4" t="n">
-        <v>501.4</v>
+        <v>460.95205</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>22.56869</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.5</v>
+        <v>162.81765</v>
       </c>
       <c r="AB4" t="n">
-        <v>663</v>
+        <v>757.16521</v>
       </c>
       <c r="AC4" t="n">
-        <v>26.9</v>
+        <v>28.8625</v>
       </c>
       <c r="AD4" t="n">
-        <v>470.5</v>
+        <v>559.87319</v>
       </c>
       <c r="AE4" t="n">
-        <v>122.8</v>
+        <v>111.8158</v>
       </c>
       <c r="AF4" t="n">
-        <v>42.8</v>
+        <v>56.61372</v>
       </c>
       <c r="AG4" t="n">
-        <v>16.7</v>
+        <v>13.57433</v>
       </c>
       <c r="AH4" t="n">
-        <v>31.2</v>
+        <v>22.63703</v>
       </c>
       <c r="AI4" t="n">
-        <v>120.4</v>
+        <v>124.91427</v>
       </c>
       <c r="AJ4" t="n">
-        <v>87.40000000000001</v>
+        <v>80.12101</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.3</v>
+        <v>1.3598</v>
       </c>
       <c r="AL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>353.7</v>
+        <v>418.39516</v>
       </c>
       <c r="C5" t="n">
-        <v>47.7</v>
+        <v>37.2771</v>
       </c>
       <c r="D5" t="n">
-        <v>131.8</v>
+        <v>141.34075</v>
       </c>
       <c r="E5" t="n">
-        <v>3816.1</v>
+        <v>4346.80357</v>
       </c>
       <c r="F5" t="n">
-        <v>26.7</v>
+        <v>20.16044</v>
       </c>
       <c r="G5" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>80.08125</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.70547</v>
+      </c>
       <c r="I5" t="n">
-        <v>951.7</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>1543.74859</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.35144</v>
+      </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>0.06748999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>2992.6</v>
+        <v>3518.546</v>
       </c>
       <c r="M5" t="n">
-        <v>3.9</v>
+        <v>1.75033</v>
       </c>
       <c r="N5" t="n">
-        <v>908</v>
+        <v>668.21466</v>
       </c>
       <c r="O5" t="n">
-        <v>61.5</v>
+        <v>172.1356</v>
       </c>
       <c r="P5" t="n">
-        <v>8.800000000000001</v>
+        <v>4.59959</v>
       </c>
       <c r="Q5" t="n">
-        <v>333.6</v>
+        <v>329.40469</v>
       </c>
       <c r="R5" t="n">
-        <v>8.4</v>
+        <v>28.21381</v>
       </c>
       <c r="S5" t="n">
-        <v>145.8</v>
+        <v>120.86756</v>
       </c>
       <c r="T5" t="n">
-        <v>3409.9</v>
+        <v>3848.32716</v>
       </c>
       <c r="U5" t="n">
-        <v>1013.2</v>
+        <v>1715.88419</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>57.2</v>
+        <v>55.85259</v>
       </c>
       <c r="X5" t="n">
-        <v>248.9</v>
+        <v>219.43535</v>
       </c>
       <c r="Y5" t="n">
-        <v>490</v>
+        <v>498.85288</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.3</v>
+        <v>21.17631</v>
       </c>
       <c r="AA5" t="n">
-        <v>176.5</v>
+        <v>198.03719</v>
       </c>
       <c r="AB5" t="n">
-        <v>788.8</v>
+        <v>872.79074</v>
       </c>
       <c r="AC5" t="n">
-        <v>30.3</v>
+        <v>16.55739</v>
       </c>
       <c r="AD5" t="n">
-        <v>572.1</v>
+        <v>717.37629</v>
       </c>
       <c r="AE5" t="n">
-        <v>137.6</v>
+        <v>81.28570000000001</v>
       </c>
       <c r="AF5" t="n">
-        <v>48.8</v>
+        <v>57.57136</v>
       </c>
       <c r="AG5" t="n">
-        <v>16.2</v>
+        <v>7.74278</v>
       </c>
       <c r="AH5" t="n">
-        <v>30.2</v>
+        <v>10.37024</v>
       </c>
       <c r="AI5" t="n">
-        <v>124.9</v>
+        <v>160.00445</v>
       </c>
       <c r="AJ5" t="n">
-        <v>84.7</v>
+        <v>63.3785</v>
       </c>
       <c r="AK5" t="n">
-        <v>1.3</v>
+        <v>1.32537</v>
       </c>
       <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347.5</v>
+        <v>436.12701</v>
       </c>
       <c r="C6" t="n">
-        <v>41.8</v>
+        <v>26.95259</v>
       </c>
       <c r="D6" t="n">
-        <v>128.5</v>
+        <v>130.79452</v>
       </c>
       <c r="E6" t="n">
-        <v>3953.6</v>
+        <v>4479.1</v>
       </c>
       <c r="F6" t="n">
-        <v>82.09999999999999</v>
+        <v>20.76007</v>
       </c>
       <c r="G6" t="n">
-        <v>60.4</v>
+        <v>79.75543999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4</v>
+        <v>7.99794</v>
       </c>
       <c r="I6" t="n">
-        <v>1093.3</v>
+        <v>1718.11728</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2</v>
+        <v>2.52038</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8</v>
+        <v>0.02297</v>
       </c>
       <c r="L6" t="n">
-        <v>3152.2</v>
+        <v>3633.53664</v>
       </c>
       <c r="M6" t="n">
-        <v>3.2</v>
+        <v>0.80406</v>
       </c>
       <c r="N6" t="n">
-        <v>893.1</v>
+        <v>614.57545</v>
       </c>
       <c r="O6" t="n">
-        <v>78.09999999999999</v>
+        <v>182.65115</v>
       </c>
       <c r="P6" t="n">
-        <v>7.4</v>
+        <v>3.47264</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.5</v>
+        <v>318.45702</v>
       </c>
       <c r="R6" t="n">
-        <v>22.8</v>
+        <v>27.31582</v>
       </c>
       <c r="S6" t="n">
-        <v>134.9</v>
+        <v>125.39615</v>
       </c>
       <c r="T6" t="n">
-        <v>3545.8</v>
+        <v>3963.167</v>
       </c>
       <c r="U6" t="n">
-        <v>1171.4</v>
+        <v>1900.76843</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>58.9</v>
+        <v>62.7823</v>
       </c>
       <c r="X6" t="n">
-        <v>228.2</v>
+        <v>218.50188</v>
       </c>
       <c r="Y6" t="n">
-        <v>473</v>
+        <v>527.05579</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.7</v>
+        <v>17.42328</v>
       </c>
       <c r="AA6" t="n">
-        <v>166.9</v>
+        <v>225.82795</v>
       </c>
       <c r="AB6" t="n">
-        <v>735.7</v>
+        <v>872.45147</v>
       </c>
       <c r="AC6" t="n">
-        <v>27.2</v>
+        <v>15.76085</v>
       </c>
       <c r="AD6" t="n">
-        <v>546.4</v>
+        <v>724.8256</v>
       </c>
       <c r="AE6" t="n">
-        <v>112.3</v>
+        <v>78.64237</v>
       </c>
       <c r="AF6" t="n">
-        <v>49.8</v>
+        <v>53.22265</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.8</v>
+        <v>5.44921</v>
       </c>
       <c r="AH6" t="n">
-        <v>33.9</v>
+        <v>8.97964</v>
       </c>
       <c r="AI6" t="n">
-        <v>139.9</v>
+        <v>152.70932</v>
       </c>
       <c r="AJ6" t="n">
-        <v>82.09999999999999</v>
+        <v>57.84305</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.4</v>
+        <v>1.14954</v>
       </c>
       <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>384.10393</v>
+        <v>453.5455</v>
       </c>
       <c r="C7" t="n">
-        <v>38.09733</v>
+        <v>24.3246</v>
       </c>
       <c r="D7" t="n">
-        <v>126.05852</v>
+        <v>121.9686</v>
       </c>
       <c r="E7" t="n">
-        <v>4036.88385</v>
+        <v>4673.1007</v>
       </c>
       <c r="F7" t="n">
-        <v>93.19878</v>
+        <v>17.5775</v>
       </c>
       <c r="G7" t="n">
-        <v>59.22776</v>
+        <v>86.5592</v>
       </c>
       <c r="H7" t="n">
-        <v>1.21514</v>
+        <v>6.603</v>
       </c>
       <c r="I7" t="n">
-        <v>1244.65663</v>
+        <v>1786.3267</v>
       </c>
       <c r="J7" t="n">
-        <v>1.12786</v>
+        <v>4.9304</v>
       </c>
       <c r="K7" t="n">
-        <v>1.29113</v>
+        <v>0.0927</v>
       </c>
       <c r="L7" t="n">
-        <v>3252.85738</v>
+        <v>3796.464</v>
       </c>
       <c r="M7" t="n">
-        <v>4.13484</v>
+        <v>0.2036</v>
       </c>
       <c r="N7" t="n">
-        <v>831.31751</v>
+        <v>624.1305</v>
       </c>
       <c r="O7" t="n">
-        <v>85.27261</v>
+        <v>215.0246</v>
       </c>
       <c r="P7" t="n">
-        <v>6.78856</v>
+        <v>3.4642</v>
       </c>
       <c r="Q7" t="n">
-        <v>323.07442</v>
+        <v>313.1377</v>
       </c>
       <c r="R7" t="n">
-        <v>26.07252</v>
+        <v>27.367</v>
       </c>
       <c r="S7" t="n">
-        <v>131.63091</v>
+        <v>132.8745</v>
       </c>
       <c r="T7" t="n">
-        <v>3593.55216</v>
+        <v>4132.9961</v>
       </c>
       <c r="U7" t="n">
-        <v>1329.92924</v>
+        <v>2001.3512</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>60.46827</v>
+        <v>56.2201</v>
       </c>
       <c r="X7" t="n">
-        <v>213.96958</v>
+        <v>211.1517</v>
       </c>
       <c r="Y7" t="n">
-        <v>460.95205</v>
+        <v>563.4991</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.56869</v>
+        <v>11.1594</v>
       </c>
       <c r="AA7" t="n">
-        <v>162.81765</v>
+        <v>280.0373</v>
       </c>
       <c r="AB7" t="n">
-        <v>757.16521</v>
+        <v>949.6436</v>
       </c>
       <c r="AC7" t="n">
-        <v>28.8625</v>
+        <v>14.5701</v>
       </c>
       <c r="AD7" t="n">
-        <v>559.87319</v>
+        <v>808.8452</v>
       </c>
       <c r="AE7" t="n">
-        <v>111.8158</v>
+        <v>73.658</v>
       </c>
       <c r="AF7" t="n">
-        <v>56.61372</v>
+        <v>52.5705</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.57433</v>
+        <v>4.8227</v>
       </c>
       <c r="AH7" t="n">
-        <v>22.63703</v>
+        <v>7.0471</v>
       </c>
       <c r="AI7" t="n">
-        <v>124.91427</v>
+        <v>142.1449</v>
       </c>
       <c r="AJ7" t="n">
-        <v>80.12101</v>
+        <v>49.7477</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.3598</v>
+        <v>1.0623</v>
       </c>
       <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>418.39516</v>
+        <v>497.6553</v>
       </c>
       <c r="C8" t="n">
-        <v>37.2771</v>
+        <v>63.5395</v>
       </c>
       <c r="D8" t="n">
-        <v>141.34075</v>
+        <v>100.3286</v>
       </c>
       <c r="E8" t="n">
-        <v>4346.80357</v>
+        <v>4812.1314</v>
       </c>
       <c r="F8" t="n">
-        <v>20.16044</v>
+        <v>15.3695</v>
       </c>
       <c r="G8" t="n">
-        <v>80.08125</v>
+        <v>84.5027</v>
       </c>
       <c r="H8" t="n">
-        <v>1.70547</v>
+        <v>6.0401</v>
       </c>
       <c r="I8" t="n">
-        <v>1543.74859</v>
+        <v>1898.0335</v>
       </c>
       <c r="J8" t="n">
-        <v>4.35144</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.06748999999999999</v>
-      </c>
+        <v>6.3342</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>3518.546</v>
+        <v>3910.0294</v>
       </c>
       <c r="M8" t="n">
-        <v>1.75033</v>
+        <v>0.1822</v>
       </c>
       <c r="N8" t="n">
-        <v>668.21466</v>
+        <v>569.7948</v>
       </c>
       <c r="O8" t="n">
-        <v>172.1356</v>
+        <v>247.1156</v>
       </c>
       <c r="P8" t="n">
-        <v>4.59959</v>
+        <v>2.283</v>
       </c>
       <c r="Q8" t="n">
-        <v>329.40469</v>
+        <v>313.1424</v>
       </c>
       <c r="R8" t="n">
-        <v>28.21381</v>
+        <v>25.4743</v>
       </c>
       <c r="S8" t="n">
-        <v>120.86756</v>
+        <v>117.7602</v>
       </c>
       <c r="T8" t="n">
-        <v>3848.32716</v>
+        <v>4229.9738</v>
       </c>
       <c r="U8" t="n">
-        <v>1715.88419</v>
+        <v>2145.1488</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>55.85259</v>
+        <v>52.6941</v>
       </c>
       <c r="X8" t="n">
-        <v>219.43535</v>
+        <v>210.867</v>
       </c>
       <c r="Y8" t="n">
-        <v>498.85288</v>
+        <v>588.9597</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.17631</v>
+        <v>15.383</v>
       </c>
       <c r="AA8" t="n">
-        <v>198.03719</v>
+        <v>303.6821</v>
       </c>
       <c r="AB8" t="n">
-        <v>872.79074</v>
+        <v>961.5601</v>
       </c>
       <c r="AC8" t="n">
-        <v>16.55739</v>
+        <v>13.2405</v>
       </c>
       <c r="AD8" t="n">
-        <v>717.37629</v>
+        <v>839.3075</v>
       </c>
       <c r="AE8" t="n">
-        <v>81.28570000000001</v>
+        <v>59.9302</v>
       </c>
       <c r="AF8" t="n">
-        <v>57.57136</v>
+        <v>49.0819</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.74278</v>
+        <v>3.5879</v>
       </c>
       <c r="AH8" t="n">
-        <v>10.37024</v>
+        <v>6.7164</v>
       </c>
       <c r="AI8" t="n">
-        <v>160.00445</v>
+        <v>166.1001</v>
       </c>
       <c r="AJ8" t="n">
-        <v>63.3785</v>
+        <v>41.7531</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.32537</v>
+        <v>1.089</v>
       </c>
       <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>436.12701</v>
+        <v>577.571</v>
       </c>
       <c r="C9" t="n">
-        <v>26.95259</v>
+        <v>57.382</v>
       </c>
       <c r="D9" t="n">
-        <v>130.79452</v>
+        <v>120.734</v>
       </c>
       <c r="E9" t="n">
-        <v>4479.1</v>
+        <v>4914.1133</v>
       </c>
       <c r="F9" t="n">
-        <v>20.76007</v>
+        <v>12.836</v>
       </c>
       <c r="G9" t="n">
-        <v>79.75543999999999</v>
+        <v>88.024</v>
       </c>
       <c r="H9" t="n">
-        <v>7.99794</v>
+        <v>10.582</v>
       </c>
       <c r="I9" t="n">
-        <v>1718.11728</v>
+        <v>1997.474</v>
       </c>
       <c r="J9" t="n">
-        <v>2.52038</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.02297</v>
-      </c>
+        <v>6.543</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>3633.53664</v>
+        <v>3996.619</v>
       </c>
       <c r="M9" t="n">
-        <v>0.80406</v>
+        <v>0.159</v>
       </c>
       <c r="N9" t="n">
-        <v>614.57545</v>
+        <v>520.939</v>
       </c>
       <c r="O9" t="n">
-        <v>182.65115</v>
+        <v>270.209</v>
       </c>
       <c r="P9" t="n">
-        <v>3.47264</v>
+        <v>1.518</v>
       </c>
       <c r="Q9" t="n">
-        <v>318.45702</v>
+        <v>299.148</v>
       </c>
       <c r="R9" t="n">
-        <v>27.31582</v>
+        <v>2.526</v>
       </c>
       <c r="S9" t="n">
-        <v>125.39615</v>
+        <v>107.925</v>
       </c>
       <c r="T9" t="n">
-        <v>3963.167</v>
+        <v>4248.519</v>
       </c>
       <c r="U9" t="n">
-        <v>1900.76843</v>
+        <v>2267.682</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>62.7823</v>
+        <v>45.032</v>
       </c>
       <c r="X9" t="n">
-        <v>218.50188</v>
+        <v>215.864</v>
       </c>
       <c r="Y9" t="n">
-        <v>527.05579</v>
+        <v>618.347</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.42328</v>
+        <v>19.035</v>
       </c>
       <c r="AA9" t="n">
-        <v>225.82795</v>
+        <v>331.874</v>
       </c>
       <c r="AB9" t="n">
-        <v>872.45147</v>
+        <v>1003.991</v>
       </c>
       <c r="AC9" t="n">
-        <v>15.76085</v>
+        <v>12.076</v>
       </c>
       <c r="AD9" t="n">
-        <v>724.8256</v>
+        <v>894.207</v>
       </c>
       <c r="AE9" t="n">
-        <v>78.64237</v>
+        <v>51.836</v>
       </c>
       <c r="AF9" t="n">
-        <v>53.22265</v>
+        <v>45.873</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.44921</v>
+        <v>2.357</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.97964</v>
+        <v>5.705</v>
       </c>
       <c r="AI9" t="n">
-        <v>152.70932</v>
+        <v>146.973</v>
       </c>
       <c r="AJ9" t="n">
-        <v>57.84305</v>
+        <v>36.136</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.14954</v>
+        <v>0.651</v>
       </c>
       <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>453.5455</v>
+        <v>542</v>
       </c>
       <c r="C10" t="n">
-        <v>24.3246</v>
+        <v>53.3</v>
       </c>
       <c r="D10" t="n">
-        <v>121.9686</v>
+        <v>106.1</v>
       </c>
       <c r="E10" t="n">
-        <v>4673.1007</v>
+        <v>4812.3</v>
       </c>
       <c r="F10" t="n">
-        <v>17.5775</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>86.5592</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>6.603</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>1786.3267</v>
+        <v>1916.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.9304</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.0927</v>
-      </c>
+        <v>3.7</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>3796.464</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.2036</v>
-      </c>
+        <v>3958.5</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>624.1305</v>
+        <v>447.3</v>
       </c>
       <c r="O10" t="n">
-        <v>215.0246</v>
+        <v>266.1</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4642</v>
+        <v>1.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>313.1377</v>
+        <v>279.1</v>
       </c>
       <c r="R10" t="n">
-        <v>27.367</v>
+        <v>5.1</v>
       </c>
       <c r="S10" t="n">
-        <v>132.8745</v>
+        <v>106.2</v>
       </c>
       <c r="T10" t="n">
-        <v>4132.9961</v>
+        <v>4185.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2001.3512</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
+        <v>2182.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>10.8</v>
+      </c>
       <c r="W10" t="n">
-        <v>56.2201</v>
+        <v>46.4</v>
       </c>
       <c r="X10" t="n">
-        <v>211.1517</v>
+        <v>194.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>563.4991</v>
+        <v>574.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.1594</v>
+        <v>7.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>280.0373</v>
+        <v>322.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>949.6436</v>
+        <v>1108.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>14.5701</v>
+        <v>10.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>808.8452</v>
+        <v>1023.1</v>
       </c>
       <c r="AE10" t="n">
-        <v>73.658</v>
+        <v>46.1</v>
       </c>
       <c r="AF10" t="n">
-        <v>52.5705</v>
+        <v>28.8</v>
       </c>
       <c r="AG10" t="n">
-        <v>4.8227</v>
+        <v>2.7</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.0471</v>
+        <v>4.4</v>
       </c>
       <c r="AI10" t="n">
-        <v>142.1449</v>
+        <v>180.9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>49.7477</v>
+        <v>31.4</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.0623</v>
-      </c>
-      <c r="AL10" t="inlineStr"/>
+        <v>0.8</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>497.6553</v>
+        <v>514.0596</v>
       </c>
       <c r="C11" t="n">
-        <v>63.5395</v>
+        <v>41.7976</v>
       </c>
       <c r="D11" t="n">
-        <v>100.3286</v>
+        <v>112.7104</v>
       </c>
       <c r="E11" t="n">
-        <v>4812.1314</v>
+        <v>4365.2178</v>
       </c>
       <c r="F11" t="n">
-        <v>15.3695</v>
+        <v>0.1605</v>
       </c>
       <c r="G11" t="n">
-        <v>84.5027</v>
+        <v>85.1448</v>
       </c>
       <c r="H11" t="n">
-        <v>6.0401</v>
+        <v>4.7781</v>
       </c>
       <c r="I11" t="n">
-        <v>1898.0335</v>
+        <v>1619.4751</v>
       </c>
       <c r="J11" t="n">
-        <v>6.3342</v>
+        <v>0.2078</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>3910.0294</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.1822</v>
-      </c>
+        <v>3523.6244</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>569.7948</v>
+        <v>359.4707</v>
       </c>
       <c r="O11" t="n">
-        <v>247.1156</v>
+        <v>286.3012</v>
       </c>
       <c r="P11" t="n">
-        <v>2.283</v>
+        <v>1.3557</v>
       </c>
       <c r="Q11" t="n">
-        <v>313.1424</v>
+        <v>300.2147</v>
       </c>
       <c r="R11" t="n">
-        <v>25.4743</v>
+        <v>6.5692</v>
       </c>
       <c r="S11" t="n">
-        <v>117.7602</v>
+        <v>134.3593</v>
       </c>
       <c r="T11" t="n">
-        <v>4229.9738</v>
+        <v>3758.3355</v>
       </c>
       <c r="U11" t="n">
-        <v>2145.1488</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
+        <v>1905.776</v>
+      </c>
+      <c r="V11" t="n">
+        <v>6.6194</v>
+      </c>
       <c r="W11" t="n">
-        <v>52.6941</v>
+        <v>35.5805</v>
       </c>
       <c r="X11" t="n">
-        <v>210.867</v>
+        <v>174.8601</v>
       </c>
       <c r="Y11" t="n">
-        <v>588.9597</v>
+        <v>541.3791</v>
       </c>
       <c r="Z11" t="n">
-        <v>15.383</v>
+        <v>3.4031</v>
       </c>
       <c r="AA11" t="n">
-        <v>303.6821</v>
+        <v>327.3282</v>
       </c>
       <c r="AB11" t="n">
-        <v>961.5601</v>
+        <v>1067.4864</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.2405</v>
+        <v>5.7486</v>
       </c>
       <c r="AD11" t="n">
-        <v>839.3075</v>
+        <v>1009.2434</v>
       </c>
       <c r="AE11" t="n">
-        <v>59.9302</v>
+        <v>29.778</v>
       </c>
       <c r="AF11" t="n">
-        <v>49.0819</v>
+        <v>22.7171</v>
       </c>
       <c r="AG11" t="n">
-        <v>3.5879</v>
+        <v>2.1291</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.7164</v>
+        <v>2.4793</v>
       </c>
       <c r="AI11" t="n">
-        <v>166.1001</v>
+        <v>163.255</v>
       </c>
       <c r="AJ11" t="n">
-        <v>41.7531</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1.089</v>
-      </c>
-      <c r="AL11" t="inlineStr"/>
+        <v>22.8678</v>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>1.0584</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>577.571</v>
+        <v>546.0624</v>
       </c>
       <c r="C12" t="n">
-        <v>57.382</v>
+        <v>36.6182</v>
       </c>
       <c r="D12" t="n">
-        <v>120.734</v>
+        <v>129.2121</v>
       </c>
       <c r="E12" t="n">
-        <v>4914.1133</v>
+        <v>4548.4568</v>
       </c>
       <c r="F12" t="n">
-        <v>12.836</v>
+        <v>0.1802</v>
       </c>
       <c r="G12" t="n">
-        <v>88.024</v>
+        <v>105.6286</v>
       </c>
       <c r="H12" t="n">
-        <v>10.582</v>
+        <v>4.8305</v>
       </c>
       <c r="I12" t="n">
-        <v>1997.474</v>
+        <v>1582.9359</v>
       </c>
       <c r="J12" t="n">
-        <v>6.543</v>
+        <v>0.8006</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>3996.619</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.159</v>
-      </c>
+        <v>3671.5711</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>520.939</v>
+        <v>398.052</v>
       </c>
       <c r="O12" t="n">
-        <v>270.209</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.518</v>
-      </c>
+        <v>283.3389</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>299.148</v>
+        <v>303.7885</v>
       </c>
       <c r="R12" t="n">
-        <v>2.526</v>
+        <v>3.213</v>
       </c>
       <c r="S12" t="n">
-        <v>107.925</v>
+        <v>129.9154</v>
       </c>
       <c r="T12" t="n">
-        <v>4248.519</v>
+        <v>3888.0074</v>
       </c>
       <c r="U12" t="n">
-        <v>2267.682</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
+        <v>1866.2744</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6.241</v>
+      </c>
       <c r="W12" t="n">
-        <v>45.032</v>
+        <v>33.7972</v>
       </c>
       <c r="X12" t="n">
-        <v>215.864</v>
+        <v>190.7404</v>
       </c>
       <c r="Y12" t="n">
-        <v>618.347</v>
+        <v>573.0971</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.035</v>
+        <v>2.3084</v>
       </c>
       <c r="AA12" t="n">
-        <v>331.874</v>
+        <v>345.4503</v>
       </c>
       <c r="AB12" t="n">
-        <v>1003.991</v>
+        <v>1260.065</v>
       </c>
       <c r="AC12" t="n">
-        <v>12.076</v>
+        <v>7.4875</v>
       </c>
       <c r="AD12" t="n">
-        <v>894.207</v>
+        <v>1194.2684</v>
       </c>
       <c r="AE12" t="n">
-        <v>51.836</v>
+        <v>33.5438</v>
       </c>
       <c r="AF12" t="n">
-        <v>45.873</v>
+        <v>24.766</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.357</v>
+        <v>9.8233</v>
       </c>
       <c r="AH12" t="n">
-        <v>5.705</v>
+        <v>12.5769</v>
       </c>
       <c r="AI12" t="n">
-        <v>146.973</v>
+        <v>102.2439</v>
       </c>
       <c r="AJ12" t="n">
-        <v>36.136</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.651</v>
-      </c>
-      <c r="AL12" t="inlineStr"/>
+        <v>22.3562</v>
+      </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>2.5177</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542</v>
+        <v>632.4146</v>
       </c>
       <c r="C13" t="n">
-        <v>53.3</v>
+        <v>34.3827</v>
       </c>
       <c r="D13" t="n">
-        <v>106.1</v>
+        <v>123.9959</v>
       </c>
       <c r="E13" t="n">
-        <v>4812.3</v>
+        <v>4686.3053</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.2785</v>
       </c>
       <c r="G13" t="n">
-        <v>73.59999999999999</v>
+        <v>106.3686</v>
       </c>
       <c r="H13" t="n">
-        <v>8.300000000000001</v>
+        <v>7.7214</v>
       </c>
       <c r="I13" t="n">
-        <v>1916.2</v>
+        <v>1600.0945</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>0.7624</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>3958.5</v>
+        <v>3807.7525</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>447.3</v>
+        <v>369.9341</v>
       </c>
       <c r="O13" t="n">
-        <v>266.1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.7</v>
-      </c>
+        <v>313.5428</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>279.1</v>
+        <v>313.1568</v>
       </c>
       <c r="R13" t="n">
-        <v>5.1</v>
+        <v>3.1146</v>
       </c>
       <c r="S13" t="n">
-        <v>106.2</v>
+        <v>143.9422</v>
       </c>
       <c r="T13" t="n">
-        <v>4185.5</v>
+        <v>3931.7921</v>
       </c>
       <c r="U13" t="n">
-        <v>2182.2</v>
+        <v>1913.6373</v>
       </c>
       <c r="V13" t="n">
-        <v>10.8</v>
+        <v>11.6912</v>
       </c>
       <c r="W13" t="n">
-        <v>46.4</v>
+        <v>32.9042</v>
       </c>
       <c r="X13" t="n">
-        <v>194.6</v>
+        <v>186.2912</v>
       </c>
       <c r="Y13" t="n">
-        <v>574.5</v>
+        <v>565.3962</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.7</v>
+        <v>1.9549</v>
       </c>
       <c r="AA13" t="n">
-        <v>322.1</v>
+        <v>343.4834</v>
       </c>
       <c r="AB13" t="n">
-        <v>1108.6</v>
+        <v>1401.1643</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.4</v>
+        <v>7.5271</v>
       </c>
       <c r="AD13" t="n">
-        <v>1023.1</v>
+        <v>1329.2963</v>
       </c>
       <c r="AE13" t="n">
-        <v>46.1</v>
+        <v>35.4592</v>
       </c>
       <c r="AF13" t="n">
-        <v>28.8</v>
+        <v>28.8818</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.7</v>
+        <v>4.9526</v>
       </c>
       <c r="AH13" t="n">
-        <v>4.4</v>
+        <v>2.5465</v>
       </c>
       <c r="AI13" t="n">
-        <v>180.9</v>
+        <v>94.4372</v>
       </c>
       <c r="AJ13" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0.8</v>
-      </c>
+        <v>20.8021</v>
+      </c>
+      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>514.0596</v>
-      </c>
-      <c r="C14" t="n">
-        <v>41.7976</v>
-      </c>
-      <c r="D14" t="n">
-        <v>112.7104</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4365.2178</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.1605</v>
-      </c>
-      <c r="G14" t="n">
-        <v>85.1448</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.7781</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1619.4751</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.2078</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>3523.6244</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>359.4707</v>
-      </c>
-      <c r="O14" t="n">
-        <v>286.3012</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.3557</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>300.2147</v>
-      </c>
-      <c r="R14" t="n">
-        <v>6.5692</v>
-      </c>
-      <c r="S14" t="n">
-        <v>134.3593</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3758.3355</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1905.776</v>
-      </c>
-      <c r="V14" t="n">
-        <v>6.6194</v>
-      </c>
-      <c r="W14" t="n">
-        <v>35.5805</v>
-      </c>
-      <c r="X14" t="n">
-        <v>174.8601</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>541.3791</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>3.4031</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>327.3282</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1067.4864</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>5.7486</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1009.2434</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>29.778</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>22.7171</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>2.1291</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>2.4793</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>163.255</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>22.8678</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>1.0584</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>546.0624</v>
-      </c>
-      <c r="C15" t="n">
-        <v>36.6182</v>
-      </c>
-      <c r="D15" t="n">
-        <v>129.2121</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4548.4568</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.1802</v>
-      </c>
-      <c r="G15" t="n">
-        <v>105.6286</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.8305</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1582.9359</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.8006</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>3671.5711</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>398.052</v>
-      </c>
-      <c r="O15" t="n">
-        <v>283.3389</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>303.7885</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3.213</v>
-      </c>
-      <c r="S15" t="n">
-        <v>129.9154</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3888.0074</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1866.2744</v>
-      </c>
-      <c r="V15" t="n">
-        <v>6.241</v>
-      </c>
-      <c r="W15" t="n">
-        <v>33.7972</v>
-      </c>
-      <c r="X15" t="n">
-        <v>190.7404</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>573.0971</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>2.3084</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>345.4503</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>1260.065</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.4875</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1194.2684</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>33.5438</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>24.766</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>9.8233</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>12.5769</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>102.2439</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>22.3562</v>
-      </c>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="n">
-        <v>2.5177</v>
+        <v>4.0391</v>
       </c>
     </row>
   </sheetData>
